--- a/premise/data/additional_inventories/lci-batteries.xlsx
+++ b/premise/data/additional_inventories/lci-batteries.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BBB4F5-FB36-4644-8176-692D9CFC31E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$O$1142</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1253,7 +1263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1606,19 +1616,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1051" workbookViewId="0">
-      <selection activeCell="B1067" sqref="B1067"/>
+    <sheetView tabSelected="1" topLeftCell="A1107" workbookViewId="0">
+      <selection activeCell="B1123" sqref="B1123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.5546875" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>247</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1682,13 +1692,13 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1708,7 +1718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1808,7 +1818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +1838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1848,7 +1858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +1878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1888,7 +1898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1908,7 +1918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1928,7 +1938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1968,7 +1978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1988,7 +1998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2008,7 +2018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2068,7 +2078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2124,12 +2134,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2149,7 +2159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2169,7 +2179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2189,7 +2199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2209,7 +2219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2229,7 +2239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2249,7 +2259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2269,7 +2279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2329,7 +2339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2349,7 +2359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -2369,7 +2379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2409,7 +2419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2429,7 +2439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2449,7 +2459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2469,7 +2479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2501,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2509,7 +2519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2525,12 +2535,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -2550,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2590,7 +2600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2630,7 +2640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2650,7 +2660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2670,7 +2680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2690,7 +2700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2710,7 +2720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2734,7 +2744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +2760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2766,12 +2776,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +2801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -2811,7 +2821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2831,7 +2841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -2851,7 +2861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -2871,7 +2881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -2891,7 +2901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -2911,7 +2921,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>68</v>
       </c>
@@ -2931,7 +2941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -2951,7 +2961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -2971,7 +2981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -3011,7 +3021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -3031,7 +3041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -3051,7 +3061,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -3071,7 +3081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -3091,7 +3101,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -3111,7 +3121,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -3139,7 +3149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -3147,7 +3157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -3163,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3179,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3187,12 +3197,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -3212,7 +3222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>75</v>
       </c>
@@ -3232,7 +3242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>71</v>
       </c>
@@ -3252,7 +3262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -3272,7 +3282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>34</v>
       </c>
@@ -3292,7 +3302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -3312,7 +3322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -3332,7 +3342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -3340,7 +3350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -3348,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3356,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -3364,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3372,7 +3382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3380,7 +3390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -3388,12 +3398,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>66</v>
       </c>
@@ -3433,7 +3443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>102</v>
       </c>
@@ -3453,7 +3463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>73</v>
       </c>
@@ -3473,7 +3483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -3493,7 +3503,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>104</v>
       </c>
@@ -3513,7 +3523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>106</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -3553,7 +3563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>71</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>108</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -3613,7 +3623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>76</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -3653,7 +3663,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -3721,7 +3731,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -3737,7 +3747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -3745,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -3761,7 +3771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -3769,12 +3779,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3794,7 +3804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>113</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>115</v>
       </c>
@@ -3834,7 +3844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>46</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>118</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>119</v>
       </c>
@@ -3894,7 +3904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>120</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -3934,7 +3944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>44</v>
       </c>
@@ -3954,7 +3964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -3974,7 +3984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>122</v>
       </c>
@@ -3994,7 +4004,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -4014,7 +4024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>123</v>
       </c>
@@ -4054,7 +4064,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>64</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>86</v>
       </c>
@@ -4094,7 +4104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>124</v>
       </c>
@@ -4114,7 +4124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>126</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -4142,7 +4152,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -4150,7 +4160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4158,7 +4168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -4166,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -4182,7 +4192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -4190,12 +4200,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -4215,7 +4225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>118</v>
       </c>
@@ -4235,7 +4245,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>128</v>
       </c>
@@ -4255,7 +4265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>56</v>
       </c>
@@ -4275,7 +4285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>62</v>
       </c>
@@ -4295,7 +4305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -4315,7 +4325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -4335,7 +4345,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>131</v>
       </c>
@@ -4355,7 +4365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>115</v>
       </c>
@@ -4375,7 +4385,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>133</v>
       </c>
@@ -4395,7 +4405,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -4416,7 +4426,7 @@
       </c>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>135</v>
       </c>
@@ -4436,7 +4446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -4452,7 +4462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -4476,7 +4486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -4484,7 +4494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -4492,12 +4502,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -4520,7 +4530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>135</v>
       </c>
@@ -4540,7 +4550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>128</v>
       </c>
@@ -4560,7 +4570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>137</v>
       </c>
@@ -4580,7 +4590,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>62</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>56</v>
       </c>
@@ -4620,7 +4630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>46</v>
       </c>
@@ -4640,7 +4650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>139</v>
       </c>
@@ -4660,7 +4670,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>141</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>126</v>
       </c>
@@ -4700,7 +4710,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>142</v>
       </c>
@@ -4717,7 +4727,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>145</v>
       </c>
@@ -4734,10 +4744,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4755,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -4753,7 +4763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -4769,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -4777,7 +4787,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -4785,7 +4795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -4793,12 +4803,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -4821,7 +4831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>141</v>
       </c>
@@ -4841,7 +4851,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>137</v>
       </c>
@@ -4861,7 +4871,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>56</v>
       </c>
@@ -4881,7 +4891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>128</v>
       </c>
@@ -4901,7 +4911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>62</v>
       </c>
@@ -4921,7 +4931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>115</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>149</v>
       </c>
@@ -4961,7 +4971,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>151</v>
       </c>
@@ -4981,7 +4991,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>152</v>
       </c>
@@ -5001,7 +5011,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>154</v>
       </c>
@@ -5021,7 +5031,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>156</v>
       </c>
@@ -5041,7 +5051,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>126</v>
       </c>
@@ -5061,7 +5071,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>158</v>
       </c>
@@ -5081,7 +5091,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>160</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>161</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5133,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2</v>
       </c>
@@ -5131,7 +5141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -5139,7 +5149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -5147,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -5155,7 +5165,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -5163,7 +5173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -5171,12 +5181,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>119</v>
       </c>
@@ -5219,7 +5229,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>128</v>
       </c>
@@ -5239,7 +5249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>62</v>
       </c>
@@ -5259,7 +5269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>56</v>
       </c>
@@ -5279,7 +5289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>163</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>327</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>164</v>
       </c>
@@ -5341,7 +5351,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>46</v>
       </c>
@@ -5361,7 +5371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>166</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>129</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>158</v>
       </c>
@@ -5421,7 +5431,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>126</v>
       </c>
@@ -5442,7 +5452,7 @@
       </c>
       <c r="K257" s="5"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>115</v>
       </c>
@@ -5462,7 +5472,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>168</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>0</v>
       </c>
@@ -5490,7 +5500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -5498,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -5506,7 +5516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -5522,7 +5532,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -5530,7 +5540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -5538,12 +5548,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -5566,7 +5576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>163</v>
       </c>
@@ -5586,7 +5596,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>62</v>
       </c>
@@ -5606,7 +5616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>137</v>
       </c>
@@ -5626,7 +5636,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>128</v>
       </c>
@@ -5646,7 +5656,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>56</v>
       </c>
@@ -5666,7 +5676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>115</v>
       </c>
@@ -5686,7 +5696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>170</v>
       </c>
@@ -5706,7 +5716,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>126</v>
       </c>
@@ -5726,7 +5736,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>46</v>
       </c>
@@ -5746,7 +5756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>172</v>
       </c>
@@ -5766,7 +5776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>0</v>
       </c>
@@ -5774,7 +5784,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -5782,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -5790,7 +5800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -5798,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -5806,7 +5816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -5814,7 +5824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -5822,12 +5832,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -5850,7 +5860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>120</v>
       </c>
@@ -5870,7 +5880,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>126</v>
       </c>
@@ -5890,7 +5900,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>174</v>
       </c>
@@ -5910,7 +5920,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>176</v>
       </c>
@@ -5930,7 +5940,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>177</v>
       </c>
@@ -5950,7 +5960,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>46</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>179</v>
       </c>
@@ -5990,7 +6000,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>0</v>
       </c>
@@ -5998,7 +6008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>2</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -6014,7 +6024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -6022,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -6038,7 +6048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -6046,12 +6056,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -6074,7 +6084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>121</v>
       </c>
@@ -6094,7 +6104,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>60</v>
       </c>
@@ -6114,7 +6124,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>62</v>
       </c>
@@ -6134,7 +6144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>53</v>
       </c>
@@ -6154,7 +6164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -6174,7 +6184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>56</v>
       </c>
@@ -6194,7 +6204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>44</v>
       </c>
@@ -6214,7 +6224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>51</v>
       </c>
@@ -6234,7 +6244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>90</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>149</v>
       </c>
@@ -6274,7 +6284,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>181</v>
       </c>
@@ -6294,7 +6304,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>181</v>
       </c>
@@ -6314,7 +6324,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>181</v>
       </c>
@@ -6334,7 +6344,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>184</v>
       </c>
@@ -6354,7 +6364,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>184</v>
       </c>
@@ -6374,7 +6384,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>0</v>
       </c>
@@ -6382,7 +6392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>2</v>
       </c>
@@ -6390,7 +6400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -6398,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -6406,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -6414,7 +6424,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -6422,7 +6432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>10</v>
       </c>
@@ -6430,12 +6440,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>12</v>
       </c>
@@ -6458,7 +6468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>122</v>
       </c>
@@ -6478,7 +6488,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>56</v>
       </c>
@@ -6498,7 +6508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>62</v>
       </c>
@@ -6518,7 +6528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>53</v>
       </c>
@@ -6538,7 +6548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>58</v>
       </c>
@@ -6558,7 +6568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>60</v>
       </c>
@@ -6578,7 +6588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>149</v>
       </c>
@@ -6598,7 +6608,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>16</v>
       </c>
@@ -6618,7 +6628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>40</v>
       </c>
@@ -6638,7 +6648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>186</v>
       </c>
@@ -6658,7 +6668,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>181</v>
       </c>
@@ -6678,7 +6688,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>181</v>
       </c>
@@ -6698,7 +6708,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>181</v>
       </c>
@@ -6718,7 +6728,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>184</v>
       </c>
@@ -6738,7 +6748,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>184</v>
       </c>
@@ -6758,7 +6768,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>0</v>
       </c>
@@ -6766,7 +6776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>2</v>
       </c>
@@ -6774,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -6782,7 +6792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -6790,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -6798,7 +6808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -6806,7 +6816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>10</v>
       </c>
@@ -6814,12 +6824,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -6842,7 +6852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>123</v>
       </c>
@@ -6862,7 +6872,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>60</v>
       </c>
@@ -6882,7 +6892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>56</v>
       </c>
@@ -6902,7 +6912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>64</v>
       </c>
@@ -6922,7 +6932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>38</v>
       </c>
@@ -6942,7 +6952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>188</v>
       </c>
@@ -6962,7 +6972,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>190</v>
       </c>
@@ -6982,7 +6992,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>115</v>
       </c>
@@ -7002,7 +7012,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>131</v>
       </c>
@@ -7022,7 +7032,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>192</v>
       </c>
@@ -7042,7 +7052,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>194</v>
       </c>
@@ -7062,7 +7072,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>46</v>
       </c>
@@ -7082,7 +7092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>126</v>
       </c>
@@ -7102,7 +7112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>196</v>
       </c>
@@ -7122,7 +7132,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>0</v>
       </c>
@@ -7130,7 +7140,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>2</v>
       </c>
@@ -7138,7 +7148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -7146,7 +7156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>6</v>
       </c>
@@ -7154,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>7</v>
       </c>
@@ -7162,7 +7172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -7170,7 +7180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>10</v>
       </c>
@@ -7178,12 +7188,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>12</v>
       </c>
@@ -7203,7 +7213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>198</v>
       </c>
@@ -7223,7 +7233,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>115</v>
       </c>
@@ -7243,7 +7253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>46</v>
       </c>
@@ -7263,7 +7273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>199</v>
       </c>
@@ -7283,7 +7293,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>119</v>
       </c>
@@ -7303,7 +7313,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>120</v>
       </c>
@@ -7323,7 +7333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>121</v>
       </c>
@@ -7343,7 +7353,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>44</v>
       </c>
@@ -7363,7 +7373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>42</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>122</v>
       </c>
@@ -7403,7 +7413,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>16</v>
       </c>
@@ -7423,7 +7433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>40</v>
       </c>
@@ -7443,7 +7453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>123</v>
       </c>
@@ -7463,7 +7473,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>64</v>
       </c>
@@ -7483,7 +7493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>86</v>
       </c>
@@ -7503,7 +7513,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>124</v>
       </c>
@@ -7523,7 +7533,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>126</v>
       </c>
@@ -7543,7 +7553,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>0</v>
       </c>
@@ -7551,7 +7561,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>2</v>
       </c>
@@ -7559,7 +7569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -7567,7 +7577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>6</v>
       </c>
@@ -7575,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -7583,7 +7593,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -7591,7 +7601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>10</v>
       </c>
@@ -7599,12 +7609,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -7624,7 +7634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>199</v>
       </c>
@@ -7644,7 +7654,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>128</v>
       </c>
@@ -7664,7 +7674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>56</v>
       </c>
@@ -7684,7 +7694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>62</v>
       </c>
@@ -7704,7 +7714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>46</v>
       </c>
@@ -7724,7 +7734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>129</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>131</v>
       </c>
@@ -7764,7 +7774,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>115</v>
       </c>
@@ -7784,7 +7794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>133</v>
       </c>
@@ -7804,7 +7814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>126</v>
       </c>
@@ -7825,7 +7835,7 @@
       </c>
       <c r="G417" s="5"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>200</v>
       </c>
@@ -7845,7 +7855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>0</v>
       </c>
@@ -7853,7 +7863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>2</v>
       </c>
@@ -7861,7 +7871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -7869,7 +7879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>6</v>
       </c>
@@ -7877,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -7885,7 +7895,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>8</v>
       </c>
@@ -7893,7 +7903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>10</v>
       </c>
@@ -7901,12 +7911,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>12</v>
       </c>
@@ -7929,7 +7939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>200</v>
       </c>
@@ -7949,7 +7959,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>128</v>
       </c>
@@ -7969,7 +7979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>137</v>
       </c>
@@ -7989,7 +7999,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>62</v>
       </c>
@@ -8009,7 +8019,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>56</v>
       </c>
@@ -8029,7 +8039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>46</v>
       </c>
@@ -8049,7 +8059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>139</v>
       </c>
@@ -8069,7 +8079,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>201</v>
       </c>
@@ -8089,7 +8099,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>126</v>
       </c>
@@ -8109,7 +8119,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>142</v>
       </c>
@@ -8126,7 +8136,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>145</v>
       </c>
@@ -8143,10 +8153,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G440" s="5"/>
     </row>
-    <row r="441" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>0</v>
       </c>
@@ -8154,7 +8164,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>2</v>
       </c>
@@ -8162,7 +8172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>4</v>
       </c>
@@ -8170,7 +8180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>6</v>
       </c>
@@ -8178,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -8186,7 +8196,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>8</v>
       </c>
@@ -8194,7 +8204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>10</v>
       </c>
@@ -8202,12 +8212,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>12</v>
       </c>
@@ -8230,7 +8240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>201</v>
       </c>
@@ -8250,7 +8260,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>137</v>
       </c>
@@ -8270,7 +8280,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>56</v>
       </c>
@@ -8290,7 +8300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>128</v>
       </c>
@@ -8310,7 +8320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>62</v>
       </c>
@@ -8330,7 +8340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>115</v>
       </c>
@@ -8350,7 +8360,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>149</v>
       </c>
@@ -8370,7 +8380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>151</v>
       </c>
@@ -8390,7 +8400,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>152</v>
       </c>
@@ -8410,7 +8420,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>154</v>
       </c>
@@ -8430,7 +8440,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>156</v>
       </c>
@@ -8451,7 +8461,7 @@
       </c>
       <c r="N460" s="7"/>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>126</v>
       </c>
@@ -8471,7 +8481,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>158</v>
       </c>
@@ -8491,7 +8501,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>160</v>
       </c>
@@ -8508,7 +8518,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>161</v>
       </c>
@@ -8525,7 +8535,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>0</v>
       </c>
@@ -8533,7 +8543,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>2</v>
       </c>
@@ -8541,7 +8551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>4</v>
       </c>
@@ -8549,7 +8559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>6</v>
       </c>
@@ -8557,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -8565,7 +8575,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>8</v>
       </c>
@@ -8573,7 +8583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>10</v>
       </c>
@@ -8581,12 +8591,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>12</v>
       </c>
@@ -8606,7 +8616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>202</v>
       </c>
@@ -8626,7 +8636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>115</v>
       </c>
@@ -8646,7 +8656,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>46</v>
       </c>
@@ -8666,7 +8676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>203</v>
       </c>
@@ -8686,7 +8696,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>119</v>
       </c>
@@ -8706,7 +8716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>120</v>
       </c>
@@ -8726,7 +8736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>121</v>
       </c>
@@ -8746,7 +8756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>44</v>
       </c>
@@ -8766,7 +8776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>42</v>
       </c>
@@ -8786,7 +8796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>122</v>
       </c>
@@ -8806,7 +8816,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>16</v>
       </c>
@@ -8826,7 +8836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>40</v>
       </c>
@@ -8846,7 +8856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>123</v>
       </c>
@@ -8866,7 +8876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>64</v>
       </c>
@@ -8886,7 +8896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>86</v>
       </c>
@@ -8906,7 +8916,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>124</v>
       </c>
@@ -8926,7 +8936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>126</v>
       </c>
@@ -8946,7 +8956,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>0</v>
       </c>
@@ -8954,7 +8964,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>2</v>
       </c>
@@ -8962,7 +8972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>4</v>
       </c>
@@ -8970,7 +8980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>6</v>
       </c>
@@ -8978,7 +8988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -8986,7 +8996,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>8</v>
       </c>
@@ -8994,7 +9004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>10</v>
       </c>
@@ -9002,12 +9012,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>12</v>
       </c>
@@ -9027,7 +9037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>203</v>
       </c>
@@ -9047,7 +9057,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>128</v>
       </c>
@@ -9067,7 +9077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>56</v>
       </c>
@@ -9087,7 +9097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>62</v>
       </c>
@@ -9107,7 +9117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>46</v>
       </c>
@@ -9127,7 +9137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>129</v>
       </c>
@@ -9147,7 +9157,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>131</v>
       </c>
@@ -9167,7 +9177,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>115</v>
       </c>
@@ -9187,7 +9197,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>133</v>
       </c>
@@ -9207,7 +9217,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>126</v>
       </c>
@@ -9228,7 +9238,7 @@
       </c>
       <c r="G511" s="5"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>204</v>
       </c>
@@ -9248,7 +9258,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>0</v>
       </c>
@@ -9256,7 +9266,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2</v>
       </c>
@@ -9264,7 +9274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>4</v>
       </c>
@@ -9272,7 +9282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>6</v>
       </c>
@@ -9280,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -9288,7 +9298,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>8</v>
       </c>
@@ -9296,7 +9306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>10</v>
       </c>
@@ -9304,12 +9314,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>12</v>
       </c>
@@ -9332,7 +9342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>204</v>
       </c>
@@ -9352,7 +9362,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>128</v>
       </c>
@@ -9372,7 +9382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>137</v>
       </c>
@@ -9392,7 +9402,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>62</v>
       </c>
@@ -9412,7 +9422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>56</v>
       </c>
@@ -9432,7 +9442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>46</v>
       </c>
@@ -9452,7 +9462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>205</v>
       </c>
@@ -9472,7 +9482,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>207</v>
       </c>
@@ -9492,7 +9502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>126</v>
       </c>
@@ -9512,7 +9522,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>145</v>
       </c>
@@ -9529,10 +9539,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G533" s="5"/>
     </row>
-    <row r="534" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>0</v>
       </c>
@@ -9540,7 +9550,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2</v>
       </c>
@@ -9548,7 +9558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>4</v>
       </c>
@@ -9556,7 +9566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>6</v>
       </c>
@@ -9564,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -9572,7 +9582,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>8</v>
       </c>
@@ -9580,7 +9590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>10</v>
       </c>
@@ -9588,12 +9598,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>12</v>
       </c>
@@ -9616,7 +9626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>207</v>
       </c>
@@ -9636,7 +9646,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>137</v>
       </c>
@@ -9656,7 +9666,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>56</v>
       </c>
@@ -9676,7 +9686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -9696,7 +9706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>62</v>
       </c>
@@ -9716,7 +9726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>115</v>
       </c>
@@ -9736,7 +9746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>149</v>
       </c>
@@ -9756,7 +9766,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>151</v>
       </c>
@@ -9776,7 +9786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>152</v>
       </c>
@@ -9796,7 +9806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>154</v>
       </c>
@@ -9816,7 +9826,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>156</v>
       </c>
@@ -9837,7 +9847,7 @@
       </c>
       <c r="N553" s="7"/>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>126</v>
       </c>
@@ -9857,7 +9867,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>158</v>
       </c>
@@ -9877,7 +9887,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>160</v>
       </c>
@@ -9894,7 +9904,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>161</v>
       </c>
@@ -9911,7 +9921,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="559" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>0</v>
       </c>
@@ -9919,7 +9929,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>2</v>
       </c>
@@ -9927,7 +9937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>4</v>
       </c>
@@ -9935,7 +9945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>6</v>
       </c>
@@ -9943,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -9951,7 +9961,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>8</v>
       </c>
@@ -9959,7 +9969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>10</v>
       </c>
@@ -9967,12 +9977,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>12</v>
       </c>
@@ -9995,7 +10005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>151</v>
       </c>
@@ -10015,7 +10025,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>128</v>
       </c>
@@ -10035,7 +10045,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>137</v>
       </c>
@@ -10055,7 +10065,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>56</v>
       </c>
@@ -10075,7 +10085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>62</v>
       </c>
@@ -10095,7 +10105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>208</v>
       </c>
@@ -10115,7 +10125,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>158</v>
       </c>
@@ -10135,7 +10145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>210</v>
       </c>
@@ -10155,7 +10165,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>212</v>
       </c>
@@ -10175,7 +10185,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>184</v>
       </c>
@@ -10195,7 +10205,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>46</v>
       </c>
@@ -10215,7 +10225,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>214</v>
       </c>
@@ -10235,7 +10245,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>216</v>
       </c>
@@ -10255,7 +10265,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>217</v>
       </c>
@@ -10275,7 +10285,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>126</v>
       </c>
@@ -10296,7 +10306,7 @@
       </c>
       <c r="O582" s="5"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>115</v>
       </c>
@@ -10316,7 +10326,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>161</v>
       </c>
@@ -10333,7 +10343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>145</v>
       </c>
@@ -10350,7 +10360,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>0</v>
       </c>
@@ -10358,7 +10368,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>2</v>
       </c>
@@ -10366,7 +10376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>4</v>
       </c>
@@ -10374,7 +10384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>6</v>
       </c>
@@ -10382,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -10390,7 +10400,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>8</v>
       </c>
@@ -10398,7 +10408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -10406,12 +10416,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>12</v>
       </c>
@@ -10434,7 +10444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>216</v>
       </c>
@@ -10454,7 +10464,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>221</v>
       </c>
@@ -10474,7 +10484,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>56</v>
       </c>
@@ -10494,7 +10504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>62</v>
       </c>
@@ -10514,7 +10524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>60</v>
       </c>
@@ -10534,7 +10544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>149</v>
       </c>
@@ -10554,7 +10564,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>222</v>
       </c>
@@ -10574,7 +10584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>46</v>
       </c>
@@ -10594,7 +10604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>126</v>
       </c>
@@ -10615,7 +10625,7 @@
       </c>
       <c r="L604" s="5"/>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>223</v>
       </c>
@@ -10635,7 +10645,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>158</v>
       </c>
@@ -10656,7 +10666,7 @@
       </c>
       <c r="L606" s="5"/>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>158</v>
       </c>
@@ -10677,7 +10687,7 @@
       </c>
       <c r="L607" s="5"/>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>158</v>
       </c>
@@ -10698,7 +10708,7 @@
       </c>
       <c r="L608" s="5"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>224</v>
       </c>
@@ -10718,7 +10728,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>224</v>
       </c>
@@ -10738,7 +10748,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>226</v>
       </c>
@@ -10758,7 +10768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>226</v>
       </c>
@@ -10778,7 +10788,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>228</v>
       </c>
@@ -10795,7 +10805,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>161</v>
       </c>
@@ -10812,7 +10822,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>229</v>
       </c>
@@ -10829,7 +10839,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>230</v>
       </c>
@@ -10846,7 +10856,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>231</v>
       </c>
@@ -10863,7 +10873,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>232</v>
       </c>
@@ -10880,7 +10890,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>233</v>
       </c>
@@ -10897,7 +10907,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>145</v>
       </c>
@@ -10914,7 +10924,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>145</v>
       </c>
@@ -10931,7 +10941,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>0</v>
       </c>
@@ -10939,7 +10949,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>2</v>
       </c>
@@ -10947,7 +10957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>4</v>
       </c>
@@ -10955,7 +10965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>6</v>
       </c>
@@ -10963,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -10971,7 +10981,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>8</v>
       </c>
@@ -10979,7 +10989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>10</v>
       </c>
@@ -10987,12 +10997,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>12</v>
       </c>
@@ -11015,7 +11025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>176</v>
       </c>
@@ -11035,7 +11045,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>62</v>
       </c>
@@ -11055,7 +11065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>56</v>
       </c>
@@ -11075,7 +11085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>60</v>
       </c>
@@ -11095,7 +11105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>221</v>
       </c>
@@ -11115,7 +11125,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>222</v>
       </c>
@@ -11135,7 +11145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>46</v>
       </c>
@@ -11155,7 +11165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>126</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>223</v>
       </c>
@@ -11195,7 +11205,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>234</v>
       </c>
@@ -11215,7 +11225,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>177</v>
       </c>
@@ -11236,7 +11246,7 @@
       </c>
       <c r="K642" s="5"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>226</v>
       </c>
@@ -11256,7 +11266,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>226</v>
       </c>
@@ -11276,7 +11286,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>158</v>
       </c>
@@ -11296,7 +11306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>158</v>
       </c>
@@ -11316,7 +11326,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>158</v>
       </c>
@@ -11336,7 +11346,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>236</v>
       </c>
@@ -11357,7 +11367,7 @@
       </c>
       <c r="K648" s="5"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>236</v>
       </c>
@@ -11378,7 +11388,7 @@
       </c>
       <c r="K649" s="5"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>238</v>
       </c>
@@ -11399,7 +11409,7 @@
       </c>
       <c r="K650" s="5"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>238</v>
       </c>
@@ -11419,7 +11429,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>0</v>
       </c>
@@ -11427,7 +11437,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>2</v>
       </c>
@@ -11435,7 +11445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>4</v>
       </c>
@@ -11443,7 +11453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>6</v>
       </c>
@@ -11451,7 +11461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -11459,7 +11469,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>8</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>10</v>
       </c>
@@ -11475,12 +11485,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>12</v>
       </c>
@@ -11500,7 +11510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>240</v>
       </c>
@@ -11520,7 +11530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>115</v>
       </c>
@@ -11540,7 +11550,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>46</v>
       </c>
@@ -11560,7 +11570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>241</v>
       </c>
@@ -11580,7 +11590,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>119</v>
       </c>
@@ -11600,7 +11610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>120</v>
       </c>
@@ -11620,7 +11630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>121</v>
       </c>
@@ -11640,7 +11650,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>44</v>
       </c>
@@ -11660,7 +11670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>42</v>
       </c>
@@ -11680,7 +11690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>122</v>
       </c>
@@ -11700,7 +11710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>16</v>
       </c>
@@ -11720,7 +11730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>40</v>
       </c>
@@ -11740,7 +11750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>123</v>
       </c>
@@ -11760,7 +11770,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>64</v>
       </c>
@@ -11780,7 +11790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>86</v>
       </c>
@@ -11800,7 +11810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>124</v>
       </c>
@@ -11820,7 +11830,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>126</v>
       </c>
@@ -11840,7 +11850,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>0</v>
       </c>
@@ -11848,7 +11858,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>2</v>
       </c>
@@ -11856,7 +11866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>4</v>
       </c>
@@ -11864,7 +11874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>6</v>
       </c>
@@ -11872,7 +11882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -11880,7 +11890,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>8</v>
       </c>
@@ -11888,7 +11898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>10</v>
       </c>
@@ -11896,12 +11906,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>12</v>
       </c>
@@ -11921,7 +11931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>241</v>
       </c>
@@ -11941,7 +11951,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>128</v>
       </c>
@@ -11961,7 +11971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>56</v>
       </c>
@@ -11981,7 +11991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>62</v>
       </c>
@@ -12001,7 +12011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>46</v>
       </c>
@@ -12021,7 +12031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>129</v>
       </c>
@@ -12041,7 +12051,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>131</v>
       </c>
@@ -12061,7 +12071,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>115</v>
       </c>
@@ -12081,7 +12091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>133</v>
       </c>
@@ -12101,7 +12111,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>126</v>
       </c>
@@ -12122,7 +12132,7 @@
       </c>
       <c r="G698" s="5"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>242</v>
       </c>
@@ -12142,7 +12152,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>0</v>
       </c>
@@ -12150,7 +12160,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>2</v>
       </c>
@@ -12158,7 +12168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>4</v>
       </c>
@@ -12166,7 +12176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>6</v>
       </c>
@@ -12174,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>7</v>
       </c>
@@ -12182,7 +12192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>8</v>
       </c>
@@ -12190,7 +12200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>10</v>
       </c>
@@ -12198,12 +12208,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>12</v>
       </c>
@@ -12226,7 +12236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>242</v>
       </c>
@@ -12246,7 +12256,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>128</v>
       </c>
@@ -12266,7 +12276,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>137</v>
       </c>
@@ -12286,7 +12296,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>62</v>
       </c>
@@ -12306,7 +12316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>56</v>
       </c>
@@ -12326,7 +12336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>46</v>
       </c>
@@ -12346,7 +12356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>205</v>
       </c>
@@ -12366,7 +12376,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>243</v>
       </c>
@@ -12386,7 +12396,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>126</v>
       </c>
@@ -12406,7 +12416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>145</v>
       </c>
@@ -12423,10 +12433,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G720" s="5"/>
     </row>
-    <row r="721" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
         <v>0</v>
       </c>
@@ -12434,7 +12444,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>2</v>
       </c>
@@ -12442,7 +12452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>4</v>
       </c>
@@ -12450,7 +12460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>6</v>
       </c>
@@ -12458,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>7</v>
       </c>
@@ -12466,7 +12476,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>8</v>
       </c>
@@ -12474,7 +12484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>10</v>
       </c>
@@ -12482,12 +12492,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>12</v>
       </c>
@@ -12510,7 +12520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>243</v>
       </c>
@@ -12530,7 +12540,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>137</v>
       </c>
@@ -12550,7 +12560,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>56</v>
       </c>
@@ -12570,7 +12580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>128</v>
       </c>
@@ -12590,7 +12600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>62</v>
       </c>
@@ -12610,7 +12620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>115</v>
       </c>
@@ -12630,7 +12640,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>149</v>
       </c>
@@ -12650,7 +12660,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>151</v>
       </c>
@@ -12670,7 +12680,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>152</v>
       </c>
@@ -12690,7 +12700,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>244</v>
       </c>
@@ -12710,7 +12720,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>156</v>
       </c>
@@ -12730,7 +12740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>126</v>
       </c>
@@ -12750,7 +12760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>158</v>
       </c>
@@ -12770,7 +12780,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>160</v>
       </c>
@@ -12787,7 +12797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>161</v>
       </c>
@@ -12804,7 +12814,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>0</v>
       </c>
@@ -12812,7 +12822,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>2</v>
       </c>
@@ -12820,7 +12830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>4</v>
       </c>
@@ -12828,7 +12838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>6</v>
       </c>
@@ -12836,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -12844,7 +12854,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>8</v>
       </c>
@@ -12852,12 +12862,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>12</v>
       </c>
@@ -12889,7 +12899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A754" s="8" t="s">
         <v>246</v>
       </c>
@@ -12912,7 +12922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>250</v>
       </c>
@@ -12932,7 +12942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>252</v>
       </c>
@@ -12952,7 +12962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>253</v>
       </c>
@@ -12972,7 +12982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>254</v>
       </c>
@@ -12992,7 +13002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>255</v>
       </c>
@@ -13012,7 +13022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>123</v>
       </c>
@@ -13035,7 +13045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>256</v>
       </c>
@@ -13058,7 +13068,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>258</v>
       </c>
@@ -13081,7 +13091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>46</v>
       </c>
@@ -13107,7 +13117,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>115</v>
       </c>
@@ -13130,7 +13140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="767" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
         <v>0</v>
       </c>
@@ -13138,7 +13148,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>2</v>
       </c>
@@ -13146,7 +13156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>4</v>
       </c>
@@ -13154,7 +13164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>6</v>
       </c>
@@ -13162,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -13170,7 +13180,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>8</v>
       </c>
@@ -13178,7 +13188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>262</v>
       </c>
@@ -13186,12 +13196,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>12</v>
       </c>
@@ -13217,7 +13227,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>252</v>
       </c>
@@ -13237,7 +13247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>265</v>
       </c>
@@ -13263,7 +13273,7 @@
         <v>0.86185933408155613</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>129</v>
       </c>
@@ -13286,7 +13296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>164</v>
       </c>
@@ -13312,7 +13322,7 @@
         <v>3.3516751880949401E-2</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>268</v>
       </c>
@@ -13335,7 +13345,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="782" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>0</v>
       </c>
@@ -13343,7 +13353,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>2</v>
       </c>
@@ -13351,7 +13361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>4</v>
       </c>
@@ -13359,7 +13369,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>6</v>
       </c>
@@ -13367,7 +13377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -13375,7 +13385,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>8</v>
       </c>
@@ -13383,7 +13393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>262</v>
       </c>
@@ -13391,12 +13401,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>12</v>
       </c>
@@ -13419,7 +13429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>253</v>
       </c>
@@ -13439,7 +13449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>271</v>
       </c>
@@ -13462,7 +13472,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>40</v>
       </c>
@@ -13485,7 +13495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
         <v>0</v>
       </c>
@@ -13493,7 +13503,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>2</v>
       </c>
@@ -13501,7 +13511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>4</v>
       </c>
@@ -13509,7 +13519,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>6</v>
       </c>
@@ -13517,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -13525,7 +13535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>8</v>
       </c>
@@ -13533,7 +13543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>262</v>
       </c>
@@ -13541,12 +13551,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>12</v>
       </c>
@@ -13569,7 +13579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>250</v>
       </c>
@@ -13589,7 +13599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>274</v>
       </c>
@@ -13609,7 +13619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>133</v>
       </c>
@@ -13632,7 +13642,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>129</v>
       </c>
@@ -13655,7 +13665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>131</v>
       </c>
@@ -13678,7 +13688,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
         <v>0</v>
       </c>
@@ -13686,7 +13696,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>2</v>
       </c>
@@ -13694,7 +13704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>4</v>
       </c>
@@ -13702,7 +13712,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>6</v>
       </c>
@@ -13710,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>7</v>
       </c>
@@ -13718,7 +13728,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>8</v>
       </c>
@@ -13726,7 +13736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>262</v>
       </c>
@@ -13734,12 +13744,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>12</v>
       </c>
@@ -13762,7 +13772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>255</v>
       </c>
@@ -13782,7 +13792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>177</v>
       </c>
@@ -13805,7 +13815,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>179</v>
       </c>
@@ -13828,7 +13838,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
         <v>0</v>
       </c>
@@ -13836,7 +13846,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>2</v>
       </c>
@@ -13844,7 +13854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>4</v>
       </c>
@@ -13852,7 +13862,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>6</v>
       </c>
@@ -13860,7 +13870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -13868,7 +13878,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>8</v>
       </c>
@@ -13876,7 +13886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>262</v>
       </c>
@@ -13884,12 +13894,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>12</v>
       </c>
@@ -13912,7 +13922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>275</v>
       </c>
@@ -13932,7 +13942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>64</v>
       </c>
@@ -13955,7 +13965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>276</v>
       </c>
@@ -13978,7 +13988,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>124</v>
       </c>
@@ -14001,7 +14011,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
         <v>0</v>
       </c>
@@ -14009,7 +14019,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>2</v>
       </c>
@@ -14017,7 +14027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>4</v>
       </c>
@@ -14025,7 +14035,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>6</v>
       </c>
@@ -14033,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -14041,7 +14051,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>8</v>
       </c>
@@ -14049,7 +14059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>262</v>
       </c>
@@ -14057,12 +14067,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>12</v>
       </c>
@@ -14085,7 +14095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>254</v>
       </c>
@@ -14105,7 +14115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>42</v>
       </c>
@@ -14128,7 +14138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>44</v>
       </c>
@@ -14151,7 +14161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="850" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
         <v>0</v>
       </c>
@@ -14159,7 +14169,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>2</v>
       </c>
@@ -14167,7 +14177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>4</v>
       </c>
@@ -14175,7 +14185,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>6</v>
       </c>
@@ -14183,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>7</v>
       </c>
@@ -14191,7 +14201,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>8</v>
       </c>
@@ -14199,7 +14209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>262</v>
       </c>
@@ -14207,12 +14217,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="857" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>12</v>
       </c>
@@ -14238,7 +14248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>278</v>
       </c>
@@ -14258,7 +14268,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>280</v>
       </c>
@@ -14278,7 +14288,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>281</v>
       </c>
@@ -14298,7 +14308,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>282</v>
       </c>
@@ -14318,7 +14328,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>274</v>
       </c>
@@ -14338,7 +14348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>126</v>
       </c>
@@ -14361,7 +14371,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>283</v>
       </c>
@@ -14384,7 +14394,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>285</v>
       </c>
@@ -14407,7 +14417,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>205</v>
       </c>
@@ -14430,7 +14440,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>287</v>
       </c>
@@ -14453,7 +14463,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>166</v>
       </c>
@@ -14476,7 +14486,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="871" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
         <v>0</v>
       </c>
@@ -14484,7 +14494,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>2</v>
       </c>
@@ -14492,7 +14502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>4</v>
       </c>
@@ -14500,7 +14510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>6</v>
       </c>
@@ -14508,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -14516,7 +14526,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>8</v>
       </c>
@@ -14524,7 +14534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>262</v>
       </c>
@@ -14532,12 +14542,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="878" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>12</v>
       </c>
@@ -14557,7 +14567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>256</v>
       </c>
@@ -14577,7 +14587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>289</v>
       </c>
@@ -14597,7 +14607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>290</v>
       </c>
@@ -14617,7 +14627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>291</v>
       </c>
@@ -14637,7 +14647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="885" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
         <v>0</v>
       </c>
@@ -14645,7 +14655,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>2</v>
       </c>
@@ -14653,7 +14663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>4</v>
       </c>
@@ -14661,7 +14671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>6</v>
       </c>
@@ -14669,7 +14679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -14677,7 +14687,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>8</v>
       </c>
@@ -14685,7 +14695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>262</v>
       </c>
@@ -14693,12 +14703,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="892" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>12</v>
       </c>
@@ -14724,7 +14734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>289</v>
       </c>
@@ -14744,7 +14754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>293</v>
       </c>
@@ -14767,7 +14777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>186</v>
       </c>
@@ -14790,7 +14800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>36</v>
       </c>
@@ -14813,7 +14823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>99</v>
       </c>
@@ -14836,7 +14846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>295</v>
       </c>
@@ -14859,7 +14869,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>297</v>
       </c>
@@ -14882,7 +14892,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>86</v>
       </c>
@@ -14908,7 +14918,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>124</v>
       </c>
@@ -14931,7 +14941,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>40</v>
       </c>
@@ -14954,7 +14964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="905" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A905" s="1" t="s">
         <v>0</v>
       </c>
@@ -14962,7 +14972,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>2</v>
       </c>
@@ -14970,7 +14980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>4</v>
       </c>
@@ -14978,7 +14988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>6</v>
       </c>
@@ -14986,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>7</v>
       </c>
@@ -14994,7 +15004,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>8</v>
       </c>
@@ -15002,7 +15012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>262</v>
       </c>
@@ -15010,12 +15020,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="912" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A912" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>12</v>
       </c>
@@ -15038,7 +15048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>290</v>
       </c>
@@ -15058,7 +15068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>293</v>
       </c>
@@ -15081,7 +15091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>186</v>
       </c>
@@ -15104,7 +15114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>40</v>
       </c>
@@ -15127,7 +15137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A919" s="1" t="s">
         <v>0</v>
       </c>
@@ -15135,7 +15145,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>2</v>
       </c>
@@ -15143,7 +15153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>4</v>
       </c>
@@ -15151,7 +15161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>6</v>
       </c>
@@ -15159,7 +15169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -15167,7 +15177,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>8</v>
       </c>
@@ -15175,7 +15185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>262</v>
       </c>
@@ -15183,12 +15193,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A926" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>12</v>
       </c>
@@ -15211,7 +15221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>291</v>
       </c>
@@ -15231,7 +15241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>42</v>
       </c>
@@ -15254,7 +15264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>51</v>
       </c>
@@ -15277,7 +15287,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>44</v>
       </c>
@@ -15300,7 +15310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="933" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A933" s="1" t="s">
         <v>0</v>
       </c>
@@ -15308,7 +15318,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>4</v>
       </c>
@@ -15316,7 +15326,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>6</v>
       </c>
@@ -15324,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>7</v>
       </c>
@@ -15332,7 +15342,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>14</v>
       </c>
@@ -15340,7 +15350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>8</v>
       </c>
@@ -15348,12 +15358,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="939" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A939" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>12</v>
       </c>
@@ -15379,7 +15389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>278</v>
       </c>
@@ -15399,7 +15409,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>301</v>
       </c>
@@ -15419,7 +15429,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>161</v>
       </c>
@@ -15439,7 +15449,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>268</v>
       </c>
@@ -15462,7 +15472,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>302</v>
       </c>
@@ -15485,7 +15495,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>304</v>
       </c>
@@ -15508,7 +15518,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>306</v>
       </c>
@@ -15531,7 +15541,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>308</v>
       </c>
@@ -15554,7 +15564,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>310</v>
       </c>
@@ -15577,7 +15587,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>166</v>
       </c>
@@ -15600,7 +15610,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>46</v>
       </c>
@@ -15623,7 +15633,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>312</v>
       </c>
@@ -15646,7 +15656,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>314</v>
       </c>
@@ -15669,7 +15679,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="955" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A955" s="1" t="s">
         <v>0</v>
       </c>
@@ -15677,7 +15687,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>2</v>
       </c>
@@ -15685,7 +15695,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>4</v>
       </c>
@@ -15693,7 +15703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>6</v>
       </c>
@@ -15701,7 +15711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -15709,7 +15719,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>8</v>
       </c>
@@ -15717,7 +15727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>10</v>
       </c>
@@ -15725,12 +15735,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="962" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A962" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>12</v>
       </c>
@@ -15759,7 +15769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="964" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A964" s="8" t="s">
         <v>316</v>
       </c>
@@ -15782,7 +15792,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>241</v>
       </c>
@@ -15805,7 +15815,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>319</v>
       </c>
@@ -15825,7 +15835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>320</v>
       </c>
@@ -15845,7 +15855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>321</v>
       </c>
@@ -15865,7 +15875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>322</v>
       </c>
@@ -15885,7 +15895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>123</v>
       </c>
@@ -15908,7 +15918,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>256</v>
       </c>
@@ -15928,7 +15938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>258</v>
       </c>
@@ -15951,7 +15961,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973" s="10" t="s">
         <v>46</v>
       </c>
@@ -15974,7 +15984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>115</v>
       </c>
@@ -15997,7 +16007,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="976" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A976" s="1" t="s">
         <v>0</v>
       </c>
@@ -16005,7 +16015,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>2</v>
       </c>
@@ -16013,7 +16023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>4</v>
       </c>
@@ -16021,7 +16031,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>6</v>
       </c>
@@ -16029,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>7</v>
       </c>
@@ -16037,7 +16047,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>8</v>
       </c>
@@ -16045,7 +16055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>262</v>
       </c>
@@ -16053,12 +16063,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A983" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>12</v>
       </c>
@@ -16081,7 +16091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>321</v>
       </c>
@@ -16101,7 +16111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>42</v>
       </c>
@@ -16124,7 +16134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>44</v>
       </c>
@@ -16147,7 +16157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A989" s="1" t="s">
         <v>0</v>
       </c>
@@ -16155,7 +16165,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>2</v>
       </c>
@@ -16163,7 +16173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>4</v>
       </c>
@@ -16171,7 +16181,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>6</v>
       </c>
@@ -16179,7 +16189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>7</v>
       </c>
@@ -16187,7 +16197,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>8</v>
       </c>
@@ -16195,7 +16205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>262</v>
       </c>
@@ -16203,12 +16213,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A996" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>12</v>
       </c>
@@ -16231,7 +16241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>319</v>
       </c>
@@ -16251,7 +16261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>323</v>
       </c>
@@ -16274,7 +16284,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>129</v>
       </c>
@@ -16297,7 +16307,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>164</v>
       </c>
@@ -16320,7 +16330,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>265</v>
       </c>
@@ -16343,7 +16353,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>131</v>
       </c>
@@ -16366,7 +16376,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>268</v>
       </c>
@@ -16389,7 +16399,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1006" s="1" t="s">
         <v>0</v>
       </c>
@@ -16397,7 +16407,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>2</v>
       </c>
@@ -16405,7 +16415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>4</v>
       </c>
@@ -16413,7 +16423,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>6</v>
       </c>
@@ -16421,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -16429,7 +16439,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>8</v>
       </c>
@@ -16437,7 +16447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>262</v>
       </c>
@@ -16445,12 +16455,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1013" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>12</v>
       </c>
@@ -16473,7 +16483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>320</v>
       </c>
@@ -16493,7 +16503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>271</v>
       </c>
@@ -16516,7 +16526,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>40</v>
       </c>
@@ -16539,7 +16549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1019" s="1" t="s">
         <v>0</v>
       </c>
@@ -16547,7 +16557,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>2</v>
       </c>
@@ -16555,7 +16565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>4</v>
       </c>
@@ -16563,7 +16573,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>6</v>
       </c>
@@ -16571,7 +16581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -16579,7 +16589,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>8</v>
       </c>
@@ -16587,7 +16597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1025" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>262</v>
       </c>
@@ -16595,12 +16605,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="1026" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1026" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1027" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>12</v>
       </c>
@@ -16623,7 +16633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1028" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>322</v>
       </c>
@@ -16643,7 +16653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1029" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>177</v>
       </c>
@@ -16666,7 +16676,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1030" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>179</v>
       </c>
@@ -16689,7 +16699,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="1032" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1032" s="1" t="s">
         <v>0</v>
       </c>
@@ -16697,7 +16707,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1033" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>6</v>
       </c>
@@ -16705,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -16713,7 +16723,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1035" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>14</v>
       </c>
@@ -16721,7 +16731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="1036" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>8</v>
       </c>
@@ -16729,7 +16739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1037" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>4</v>
       </c>
@@ -16737,12 +16747,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1038" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1038" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1039" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1039" s="1" t="s">
         <v>12</v>
       </c>
@@ -16768,7 +16778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1040" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>323</v>
       </c>
@@ -16791,7 +16801,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1041" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>142</v>
       </c>
@@ -16811,7 +16821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="1042" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>46</v>
       </c>
@@ -16834,7 +16844,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1043" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>139</v>
       </c>
@@ -16857,7 +16867,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="1044" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>324</v>
       </c>
@@ -16880,7 +16890,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1046" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1046" s="1" t="s">
         <v>0</v>
       </c>
@@ -16888,7 +16898,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="1047" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>2</v>
       </c>
@@ -16896,7 +16906,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="1048" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>4</v>
       </c>
@@ -16904,7 +16914,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1049" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>6</v>
       </c>
@@ -16912,7 +16922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>7</v>
       </c>
@@ -16920,7 +16930,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="1051" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>8</v>
       </c>
@@ -16928,7 +16938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1052" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>10</v>
       </c>
@@ -16936,12 +16946,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="1053" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1053" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1054" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>12</v>
       </c>
@@ -16967,7 +16977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1055" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>327</v>
       </c>
@@ -16987,7 +16997,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="1056" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>56</v>
       </c>
@@ -17011,7 +17021,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="1057" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>56</v>
       </c>
@@ -17035,7 +17045,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="1058" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>46</v>
       </c>
@@ -17059,7 +17069,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1059" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>334</v>
       </c>
@@ -17083,7 +17093,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1060" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>226</v>
       </c>
@@ -17107,7 +17117,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="1061" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>338</v>
       </c>
@@ -17131,7 +17141,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="1062" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>341</v>
       </c>
@@ -17155,7 +17165,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1063" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>142</v>
       </c>
@@ -17176,7 +17186,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1064" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
         <v>231</v>
       </c>
@@ -17197,7 +17207,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1066" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1066" s="1" t="s">
         <v>0</v>
       </c>
@@ -17205,7 +17215,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>2</v>
       </c>
@@ -17213,7 +17223,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="1068" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>4</v>
       </c>
@@ -17221,7 +17231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1069" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
         <v>6</v>
       </c>
@@ -17229,7 +17239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1070" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
         <v>7</v>
       </c>
@@ -17237,7 +17247,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="1071" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>8</v>
       </c>
@@ -17245,7 +17255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1072" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>10</v>
       </c>
@@ -17253,12 +17263,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="1073" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1073" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1074" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>12</v>
       </c>
@@ -17284,7 +17294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1075" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
         <v>338</v>
       </c>
@@ -17304,7 +17314,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="1076" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>46</v>
       </c>
@@ -17328,7 +17338,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1077" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>334</v>
       </c>
@@ -17352,7 +17362,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1078" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>348</v>
       </c>
@@ -17376,7 +17386,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>351</v>
       </c>
@@ -17400,7 +17410,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="1080" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>212</v>
       </c>
@@ -17424,7 +17434,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="1081" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>355</v>
       </c>
@@ -17448,7 +17458,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1082" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>27</v>
       </c>
@@ -17472,7 +17482,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="1083" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>359</v>
       </c>
@@ -17496,7 +17506,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1084" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>56</v>
       </c>
@@ -17520,7 +17530,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="1085" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>363</v>
       </c>
@@ -17541,7 +17551,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1086" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>142</v>
       </c>
@@ -17562,7 +17572,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1087" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>145</v>
       </c>
@@ -17583,7 +17593,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1088" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>158</v>
       </c>
@@ -17604,7 +17614,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="1090" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1090" s="1" t="s">
         <v>0</v>
       </c>
@@ -17612,7 +17622,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1091" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>2</v>
       </c>
@@ -17620,7 +17630,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="1092" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>4</v>
       </c>
@@ -17628,7 +17638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1093" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>6</v>
       </c>
@@ -17636,7 +17646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1094" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -17644,7 +17654,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1095" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>8</v>
       </c>
@@ -17652,7 +17662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1096" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
         <v>10</v>
       </c>
@@ -17660,12 +17670,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="1097" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1097" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1098" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>12</v>
       </c>
@@ -17691,7 +17701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1099" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
         <v>363</v>
       </c>
@@ -17711,7 +17721,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>46</v>
       </c>
@@ -17735,7 +17745,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="1101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>334</v>
       </c>
@@ -17759,7 +17769,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="1102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>368</v>
       </c>
@@ -17783,7 +17793,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="1104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1104" s="1" t="s">
         <v>0</v>
       </c>
@@ -17791,7 +17801,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>2</v>
       </c>
@@ -17799,7 +17809,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="1106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>4</v>
       </c>
@@ -17807,7 +17817,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>6</v>
       </c>
@@ -17815,7 +17825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -17823,7 +17833,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>8</v>
       </c>
@@ -17831,7 +17841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>10</v>
       </c>
@@ -17839,12 +17849,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="1111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1111" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>12</v>
       </c>
@@ -17870,7 +17880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>368</v>
       </c>
@@ -17890,7 +17900,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>46</v>
       </c>
@@ -17914,7 +17924,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>334</v>
       </c>
@@ -17938,7 +17948,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="1116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>374</v>
       </c>
@@ -17962,7 +17972,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="1117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>377</v>
       </c>
@@ -17986,7 +17996,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="1118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>380</v>
       </c>
@@ -18010,7 +18020,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
         <v>27</v>
       </c>
@@ -18034,7 +18044,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="1120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
         <v>142</v>
       </c>
@@ -18055,7 +18065,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>145</v>
       </c>
@@ -18076,13 +18086,13 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>158</v>
       </c>
       <c r="B1122">
-        <f>21.707/1000</f>
-        <v>2.1707000000000001E-2</v>
+        <f>-21.707/1000</f>
+        <v>-2.1707000000000001E-2</v>
       </c>
       <c r="C1122" t="s">
         <v>146</v>
@@ -18100,7 +18110,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="1123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>385</v>
       </c>
@@ -18121,7 +18131,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
         <v>56</v>
       </c>
@@ -18145,7 +18155,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="1126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1126" s="1" t="s">
         <v>0</v>
       </c>
@@ -18153,7 +18163,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>2</v>
       </c>
@@ -18161,7 +18171,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="1128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
         <v>4</v>
       </c>
@@ -18169,7 +18179,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>6</v>
       </c>
@@ -18177,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -18185,7 +18195,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="1131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>8</v>
       </c>
@@ -18193,7 +18203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>10</v>
       </c>
@@ -18201,12 +18211,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="1133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1133" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>12</v>
       </c>
@@ -18232,7 +18242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>377</v>
       </c>
@@ -18252,7 +18262,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="1136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>46</v>
       </c>
@@ -18276,7 +18286,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="1137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>334</v>
       </c>
@@ -18300,7 +18310,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="1138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>391</v>
       </c>
@@ -18324,7 +18334,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>142</v>
       </c>
@@ -18345,7 +18355,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>145</v>
       </c>
@@ -18366,7 +18376,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>396</v>
       </c>
@@ -18387,7 +18397,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>397</v>
       </c>
@@ -18409,7 +18419,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1142"/>
+  <autoFilter ref="A1:O1142" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
